--- a/fedemeter_cost_db_prepare/fedemeter_data/prophetstor_region_mapping.xlsx
+++ b/fedemeter_cost_db_prepare/fedemeter_data/prophetstor_region_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\fedemeter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2678FBD-C4F6-49FE-A7C5-C64004FCA56A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24FD8C-70FB-4509-BDBE-24ADF2F713FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="239">
   <si>
     <t>provider</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,162 +701,200 @@
     <t>Johannesburg</t>
   </si>
   <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>West US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>United Kingdom West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Central US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>East US 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Brazil South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>West US 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>West Central US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wyoming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Quebec </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zurich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>East US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geneva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illinois</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middenmeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany Northeast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West (Los Angeles)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West (Northern California)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway East</t>
+  </si>
+  <si>
+    <t>Norway West</t>
+  </si>
+  <si>
+    <t>Stavanger</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Africa (Cape Town)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Cape Town</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>New South Wales</t>
-  </si>
-  <si>
-    <t>West US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>United Kingdom West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cardiff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Central US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>East US 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
-  <si>
-    <t>Brazil South</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Magdeburg</t>
-  </si>
-  <si>
-    <t>West US 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Washington</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>West Central US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wyoming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toronto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Quebec </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zurich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>East US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Busan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geneva</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Berlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Illinois</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bahrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middenmeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Republic of South Africa</t>
-  </si>
-  <si>
-    <t>Republic of South Africa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Germany Northeast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West (Los Angeles)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West (Northern California)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Norway East</t>
-  </si>
-  <si>
-    <t>Norway West</t>
-  </si>
-  <si>
-    <t>Stavanger</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Norway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 3a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 3c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 4c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nevada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1184,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1386,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1447,10 +1485,10 @@
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1509,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
         <v>71</v>
@@ -1518,7 +1556,7 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
         <v>71</v>
@@ -1557,19 +1595,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>229</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1577,16 +1615,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1594,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1611,16 +1649,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1628,16 +1666,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,16 +1700,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1679,16 +1717,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,16 +1734,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
         <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1713,16 +1751,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1730,7 +1768,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C32" t="s">
         <v>71</v>
@@ -1739,7 +1777,7 @@
         <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1747,16 +1785,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,16 +1802,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,16 +1819,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,16 +1836,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1815,16 +1853,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C37" t="s">
         <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,16 +1870,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
         <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,16 +1887,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1866,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -1875,7 +1913,7 @@
         <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,16 +1921,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,16 +1938,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1917,16 +1955,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>207</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,16 +1972,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,16 +1989,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,16 +2006,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,16 +2023,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,16 +2040,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,7 +2057,7 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
@@ -2028,7 +2066,7 @@
         <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,16 +2074,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,16 +2091,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
         <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,16 +2108,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2087,16 +2125,16 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2104,16 +2142,16 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,7 +2159,7 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
         <v>61</v>
@@ -2130,7 +2168,7 @@
         <v>181</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2138,16 +2176,16 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2155,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
         <v>135</v>
@@ -2164,7 +2202,7 @@
         <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2172,16 +2210,16 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,16 +2227,16 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2206,16 +2244,16 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="E60" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,16 +2261,16 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
         <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2240,16 +2278,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
         <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2257,33 +2295,33 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" t="s">
         <v>226</v>
-      </c>
-      <c r="C63" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" t="s">
-        <v>229</v>
-      </c>
-      <c r="E63" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,7 +2329,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="C65" t="s">
         <v>62</v>
@@ -2308,7 +2346,7 @@
         <v>59</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>62</v>
@@ -2325,16 +2363,16 @@
         <v>59</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
         <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2342,7 +2380,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
         <v>62</v>
@@ -2359,7 +2397,7 @@
         <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
@@ -2376,16 +2414,16 @@
         <v>59</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,7 +2431,7 @@
         <v>59</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>62</v>
@@ -2410,7 +2448,7 @@
         <v>59</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
@@ -2427,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>62</v>
@@ -2436,7 +2474,7 @@
         <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,7 +2482,7 @@
         <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
         <v>62</v>
@@ -2461,7 +2499,7 @@
         <v>59</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
         <v>62</v>
@@ -2478,16 +2516,16 @@
         <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
         <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2495,7 +2533,7 @@
         <v>59</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>62</v>
@@ -2512,7 +2550,7 @@
         <v>59</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
         <v>62</v>
@@ -2529,16 +2567,16 @@
         <v>59</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>62</v>
       </c>
       <c r="D79" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2546,7 +2584,7 @@
         <v>59</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s">
         <v>62</v>
@@ -2563,7 +2601,7 @@
         <v>59</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
         <v>62</v>
@@ -2580,16 +2618,16 @@
         <v>59</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E82" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2597,7 +2635,7 @@
         <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
         <v>134</v>
@@ -2614,7 +2652,7 @@
         <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" t="s">
         <v>134</v>
@@ -2631,16 +2669,16 @@
         <v>59</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,7 +2686,7 @@
         <v>59</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
         <v>135</v>
@@ -2665,7 +2703,7 @@
         <v>59</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
         <v>135</v>
@@ -2682,16 +2720,16 @@
         <v>59</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
         <v>135</v>
       </c>
       <c r="D88" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2699,7 +2737,7 @@
         <v>59</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>135</v>
@@ -2716,7 +2754,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
         <v>135</v>
@@ -2733,16 +2771,16 @@
         <v>59</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
         <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2750,7 +2788,7 @@
         <v>59</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
         <v>135</v>
@@ -2767,7 +2805,7 @@
         <v>59</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
         <v>135</v>
@@ -2784,16 +2822,16 @@
         <v>59</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
         <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="E94" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2801,7 +2839,7 @@
         <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
         <v>135</v>
@@ -2818,7 +2856,7 @@
         <v>59</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
         <v>135</v>
@@ -2835,16 +2873,16 @@
         <v>59</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
         <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,7 +2890,7 @@
         <v>59</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
         <v>135</v>
@@ -2869,7 +2907,7 @@
         <v>59</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C99" t="s">
         <v>135</v>
@@ -2886,16 +2924,16 @@
         <v>59</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
         <v>135</v>
       </c>
       <c r="D100" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2903,7 +2941,7 @@
         <v>59</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
         <v>135</v>
@@ -2912,7 +2950,7 @@
         <v>151</v>
       </c>
       <c r="E101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2920,7 +2958,7 @@
         <v>59</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" t="s">
         <v>135</v>
@@ -2929,7 +2967,7 @@
         <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2937,16 +2975,16 @@
         <v>59</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="D103" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="E103" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2954,7 +2992,7 @@
         <v>59</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
         <v>71</v>
@@ -2971,7 +3009,7 @@
         <v>59</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C105" t="s">
         <v>71</v>
@@ -2988,16 +3026,16 @@
         <v>59</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D106" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E106" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3005,7 +3043,7 @@
         <v>59</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="C107" t="s">
         <v>70</v>
@@ -3022,7 +3060,7 @@
         <v>59</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
         <v>70</v>
@@ -3039,16 +3077,16 @@
         <v>59</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D109" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3056,7 +3094,7 @@
         <v>59</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
         <v>71</v>
@@ -3073,7 +3111,7 @@
         <v>59</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C111" t="s">
         <v>71</v>
@@ -3090,7 +3128,7 @@
         <v>59</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
         <v>71</v>
@@ -3107,7 +3145,7 @@
         <v>59</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s">
         <v>71</v>
@@ -3116,7 +3154,7 @@
         <v>86</v>
       </c>
       <c r="E113" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3124,7 +3162,7 @@
         <v>59</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C114" t="s">
         <v>71</v>
@@ -3141,7 +3179,7 @@
         <v>59</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
         <v>71</v>
@@ -3158,7 +3196,7 @@
         <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
         <v>71</v>
@@ -3167,7 +3205,7 @@
         <v>86</v>
       </c>
       <c r="E116" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3175,7 +3213,7 @@
         <v>59</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C117" t="s">
         <v>71</v>
@@ -3192,7 +3230,7 @@
         <v>59</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C118" t="s">
         <v>71</v>
@@ -3209,7 +3247,7 @@
         <v>59</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
         <v>71</v>
@@ -3218,7 +3256,7 @@
         <v>86</v>
       </c>
       <c r="E119" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3226,7 +3264,7 @@
         <v>59</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C120" t="s">
         <v>71</v>
@@ -3243,7 +3281,7 @@
         <v>59</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
         <v>71</v>
@@ -3260,7 +3298,7 @@
         <v>59</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C122" t="s">
         <v>71</v>
@@ -3269,7 +3307,7 @@
         <v>86</v>
       </c>
       <c r="E122" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3277,7 +3315,7 @@
         <v>59</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C123" t="s">
         <v>71</v>
@@ -3294,7 +3332,7 @@
         <v>59</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C124" t="s">
         <v>71</v>
@@ -3304,6 +3342,125 @@
       </c>
       <c r="E124" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" t="s">
+        <v>71</v>
+      </c>
+      <c r="D125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C126" t="s">
+        <v>71</v>
+      </c>
+      <c r="D126" t="s">
+        <v>86</v>
+      </c>
+      <c r="E126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" t="s">
+        <v>71</v>
+      </c>
+      <c r="D127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E127" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128" t="s">
+        <v>71</v>
+      </c>
+      <c r="D128" t="s">
+        <v>86</v>
+      </c>
+      <c r="E128" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" t="s">
+        <v>86</v>
+      </c>
+      <c r="E129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>59</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C130" t="s">
+        <v>71</v>
+      </c>
+      <c r="D130" t="s">
+        <v>86</v>
+      </c>
+      <c r="E130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>59</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D131" t="s">
+        <v>86</v>
+      </c>
+      <c r="E131" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/fedemeter_cost_db_prepare/fedemeter_data/prophetstor_region_mapping.xlsx
+++ b/fedemeter_cost_db_prepare/fedemeter_data/prophetstor_region_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\fedemeter_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E24FD8C-70FB-4509-BDBE-24ADF2F713FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2DA201-5C8B-485B-9734-158B0C119745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="247">
   <si>
     <t>provider</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,14 +238,681 @@
     <t>France</t>
   </si>
   <si>
+    <t>EU (Frankfurt)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South America (Sao Paulo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South America</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia Pacific (Seoul)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia Pacific (Singapore)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia Pacific (Sydney)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada (Central)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Brazil</t>
-  </si>
-  <si>
-    <t>EU (Frankfurt)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South America (Sao Paulo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (Ireland)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (London)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (Paris)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (Stockholm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia Northeast 2a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia Northeast 2b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia Northeast 2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe West 6a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe West 6b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe West 6c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Osaka-Local)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Osaka</t>
+  </si>
+  <si>
+    <t>Osaka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seoul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sydney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia Pacific (Tokyo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia Pacific (Hong Kong)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middle East (Bahrain)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>London</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stockholm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US East (N. Virginia)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US East (Ohio)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>US West (Oregon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oregon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia East 1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia Southeast 1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe North 1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northamerica Northeast 1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southamerica East 1a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moncks Corner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quebec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taiwan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokyo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jurong West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Ghislain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eemshaven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iowa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>California</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changhua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Central US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia East</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAE North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAE Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany North</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany West Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southeast Asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Australia Southeast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>France Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South India</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia Central 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>France South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>West India</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia Central</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central India</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan East</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Europe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>West Europe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>East Asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>New South Wales</t>
+  </si>
+  <si>
+    <t>West US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>United Kingdom West</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardiff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Central US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>East US 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>Brazil South</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abu Dhabi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Magdeburg</t>
+  </si>
+  <si>
+    <t>West US 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>West Central US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wyoming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toronto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Quebec </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zurich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>East US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geneva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berlin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illinois</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Middenmeer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany Northeast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West (Los Angeles)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West (Northern California)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway East</t>
+  </si>
+  <si>
+    <t>Norway West</t>
+  </si>
+  <si>
+    <t>Stavanger</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Africa (Cape Town)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 3a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 3b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 3c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 4a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 4b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West 4c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nevada</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US East (Verizon) - Boston</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US West (Verizon) - San Francisco Bay Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Brazil Southeast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -253,647 +920,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>North America</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia Pacific (Seoul)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia Pacific (Singapore)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia Pacific (Sydney)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Australia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canada (Central)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brazil</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Germany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU (Ireland)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU (London)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU (Paris)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>France</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU (Stockholm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia Northeast 2a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia Northeast 2b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia Northeast 2c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Europe West 6a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Europe West 6b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Europe West 6c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seoul</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Asia Pacific (Osaka-Local)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Osaka</t>
-  </si>
-  <si>
-    <t>Osaka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sydney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia Pacific (Tokyo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia Pacific (Hong Kong)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middle East (Bahrain)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>London</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paris</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stockholm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US East (N. Virginia)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US East (Ohio)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ohio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>US West (Oregon)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oregon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sao Paulo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia East 1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Australia Southeast 1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Europe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Europe North 1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Northamerica Northeast 1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Southamerica East 1a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moncks Corner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quebec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taiwan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tokyo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jurong West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hamina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Belgium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>St. Ghislain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Netherlands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eemshaven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switzerland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iowa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>California</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Changhua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>North Central US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Australia East</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAE North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAE Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switzerland North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Switzerland West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>United Kingdom South</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Africa North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Africa West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canada Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Germany North</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Germany West Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Southeast Asia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Australia Southeast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>France Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Australia Central 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korea Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Germany Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>France South</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>West India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Australia Central</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central India</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Japan East</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korea South</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>North Europe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ireland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>West Europe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>East Asia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Johannesburg</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>New South Wales</t>
-  </si>
-  <si>
-    <t>West US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>United Kingdom West</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cardiff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Central US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>East US 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
-  <si>
-    <t>Brazil South</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Abu Dhabi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Magdeburg</t>
-  </si>
-  <si>
-    <t>West US 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Washington</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>West Central US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wyoming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toronto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Quebec </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zurich</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pune</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Central US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>East US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Busan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geneva</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Berlin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Illinois</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bahrain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Middenmeer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Republic of South Africa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Germany Northeast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West (Los Angeles)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West (Northern California)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Norway East</t>
-  </si>
-  <si>
-    <t>Norway West</t>
-  </si>
-  <si>
-    <t>Stavanger</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Africa (Cape Town)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Africa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cape Town</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West 3a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West 3b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West 3c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Utah</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West 4a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West 4b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US West 4c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nevada</t>
+    <t>Rio de Janeiro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,15 +1253,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -1264,10 +1295,10 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1275,16 +1306,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,16 +1323,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1309,16 +1340,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1326,16 +1357,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1343,16 +1374,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1360,16 +1391,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
       </c>
       <c r="D8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
         <v>115</v>
-      </c>
-      <c r="E8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1377,16 +1408,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1394,16 +1425,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,16 +1442,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,16 +1459,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1445,16 +1476,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,16 +1493,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
-      </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1479,16 +1510,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,16 +1527,16 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1513,16 +1544,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1530,33 +1561,33 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
         <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1564,16 +1595,16 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,16 +1612,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1598,50 +1629,50 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,16 +1680,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1666,16 +1697,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1683,16 +1714,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1700,16 +1731,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1717,16 +1748,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1734,16 +1765,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,16 +1782,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1768,16 +1799,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,16 +1816,16 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,16 +1833,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1819,16 +1850,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,16 +1867,16 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,16 +1884,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,16 +1901,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,16 +1918,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,16 +1935,16 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,16 +1952,16 @@
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1938,16 +1969,16 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1955,16 +1986,16 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,16 +2003,16 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,16 +2020,16 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2006,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -2015,7 +2046,7 @@
         <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,16 +2054,16 @@
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2040,16 +2071,16 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,16 +2088,16 @@
         <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,16 +2105,16 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,16 +2122,16 @@
         <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,16 +2139,16 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,16 +2156,16 @@
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,16 +2173,16 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,16 +2190,16 @@
         <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>199</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,16 +2224,16 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,16 +2241,16 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2227,16 +2258,16 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2244,16 +2275,16 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2261,16 +2292,16 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,16 +2309,16 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="E62" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,16 +2326,16 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E63" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,67 +2343,67 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="D65" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="D66" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="E66" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="E67" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,16 +2411,16 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
         <v>62</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,16 +2428,16 @@
         <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,16 +2445,16 @@
         <v>59</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,16 +2462,16 @@
         <v>59</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
         <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2448,16 +2479,16 @@
         <v>59</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,16 +2496,16 @@
         <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2482,16 +2513,16 @@
         <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2499,16 +2530,16 @@
         <v>59</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2516,16 +2547,16 @@
         <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>62</v>
       </c>
       <c r="D76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2533,16 +2564,16 @@
         <v>59</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
         <v>62</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2550,16 +2581,16 @@
         <v>59</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C78" t="s">
         <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,16 +2598,16 @@
         <v>59</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="C79" t="s">
         <v>62</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2584,16 +2615,16 @@
         <v>59</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
         <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E80" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2601,16 +2632,16 @@
         <v>59</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>62</v>
       </c>
       <c r="D81" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,16 +2649,16 @@
         <v>59</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E82" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2635,16 +2666,16 @@
         <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,16 +2683,16 @@
         <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2669,16 +2700,16 @@
         <v>59</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="D85" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E85" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,16 +2717,16 @@
         <v>59</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D86" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2703,16 +2734,16 @@
         <v>59</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D87" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2720,16 +2751,16 @@
         <v>59</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="E88" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2737,16 +2768,16 @@
         <v>59</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="C89" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E89" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2754,16 +2785,16 @@
         <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E90" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,16 +2802,16 @@
         <v>59</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,16 +2819,16 @@
         <v>59</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E92" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2805,16 +2836,16 @@
         <v>59</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E93" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2822,16 +2853,16 @@
         <v>59</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E94" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2839,13 +2870,13 @@
         <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E95" t="s">
         <v>118</v>
@@ -2856,13 +2887,13 @@
         <v>59</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D96" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E96" t="s">
         <v>118</v>
@@ -2873,13 +2904,13 @@
         <v>59</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D97" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E97" t="s">
         <v>118</v>
@@ -2890,16 +2921,16 @@
         <v>59</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D98" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,16 +2938,16 @@
         <v>59</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2924,16 +2955,16 @@
         <v>59</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D100" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,16 +2972,16 @@
         <v>59</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E101" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2958,16 +2989,16 @@
         <v>59</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E102" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -2975,16 +3006,16 @@
         <v>59</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E103" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -2992,16 +3023,16 @@
         <v>59</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C104" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="E104" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,16 +3040,16 @@
         <v>59</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D105" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="E105" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3026,16 +3057,16 @@
         <v>59</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D106" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3043,16 +3074,16 @@
         <v>59</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C107" t="s">
         <v>70</v>
       </c>
       <c r="D107" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E107" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,16 +3091,16 @@
         <v>59</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C108" t="s">
         <v>70</v>
       </c>
       <c r="D108" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3077,16 +3108,16 @@
         <v>59</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C109" t="s">
         <v>70</v>
       </c>
       <c r="D109" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E109" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3094,16 +3125,16 @@
         <v>59</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="C110" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D110" t="s">
         <v>86</v>
       </c>
       <c r="E110" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,16 +3142,16 @@
         <v>59</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D111" t="s">
         <v>86</v>
       </c>
       <c r="E111" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,16 +3159,16 @@
         <v>59</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D112" t="s">
         <v>86</v>
       </c>
       <c r="E112" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,16 +3176,16 @@
         <v>59</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3162,16 +3193,16 @@
         <v>59</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E114" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3179,16 +3210,16 @@
         <v>59</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E115" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,16 +3227,16 @@
         <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D116" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,16 +3244,16 @@
         <v>59</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E117" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,16 +3261,16 @@
         <v>59</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E118" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3247,16 +3278,16 @@
         <v>59</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E119" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3264,16 +3295,16 @@
         <v>59</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C120" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D120" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E120" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3281,16 +3312,16 @@
         <v>59</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E121" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3298,16 +3329,16 @@
         <v>59</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D122" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E122" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3315,16 +3346,16 @@
         <v>59</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D123" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E123" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3332,16 +3363,16 @@
         <v>59</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C124" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D124" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E124" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3349,16 +3380,16 @@
         <v>59</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C125" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D125" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E125" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3366,16 +3397,16 @@
         <v>59</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="C126" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E126" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,16 +3414,16 @@
         <v>59</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
       <c r="C127" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E127" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3400,16 +3431,16 @@
         <v>59</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="C128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E128" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3417,16 +3448,16 @@
         <v>59</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E129" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3434,16 +3465,16 @@
         <v>59</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E130" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3451,16 +3482,67 @@
         <v>59</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C132" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" t="s">
+        <v>85</v>
+      </c>
+      <c r="E132" t="s">
         <v>237</v>
       </c>
-      <c r="C131" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" t="s">
-        <v>86</v>
-      </c>
-      <c r="E131" t="s">
-        <v>238</v>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C133" t="s">
+        <v>70</v>
+      </c>
+      <c r="D133" t="s">
+        <v>85</v>
+      </c>
+      <c r="E133" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C134" t="s">
+        <v>70</v>
+      </c>
+      <c r="D134" t="s">
+        <v>85</v>
+      </c>
+      <c r="E134" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
